--- a/DY-CN翻译进度.xlsx
+++ b/DY-CN翻译进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t xml:space="preserve">翻译目录表 </t>
   </si>
@@ -277,13 +277,20 @@
   <si>
     <t>(4)Dy教程案列文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻译人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangzbxyz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +316,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -337,21 +352,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -650,102 +671,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -830,82 +856,97 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
         <v>57</v>
       </c>
@@ -979,7 +1020,7 @@
       <c r="A62" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
@@ -1002,7 +1043,7 @@
       </c>
     </row>
     <row r="67" spans="2:2" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="3"/>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="69" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1015,14 +1056,19 @@
     <row r="76" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="77" spans="2:2" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D38" r:id="rId1" display="https://github.com/zhangzbxyz"/>
+    <hyperlink ref="D39:D42" r:id="rId2" display="https://github.com/zhangzbxyz"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
